--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Leap2-Ghsr.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Leap2-Ghsr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T17"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.537013666666666</v>
+        <v>3.093697666666667</v>
       </c>
       <c r="H2">
-        <v>7.611040999999999</v>
+        <v>9.281093</v>
       </c>
       <c r="I2">
-        <v>0.2842954840254888</v>
+        <v>0.3054078832615814</v>
       </c>
       <c r="J2">
-        <v>0.2842954840254888</v>
+        <v>0.3054078832615814</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -555,28 +555,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.4759383333333333</v>
+        <v>0.5447316666666667</v>
       </c>
       <c r="N2">
-        <v>1.427815</v>
+        <v>1.634195</v>
       </c>
       <c r="O2">
-        <v>0.1284588056245616</v>
+        <v>0.1484165462704666</v>
       </c>
       <c r="P2">
-        <v>0.1284588056245616</v>
+        <v>0.1484165462704666</v>
       </c>
       <c r="Q2">
-        <v>1.207462056157222</v>
+        <v>1.685235086126111</v>
       </c>
       <c r="R2">
-        <v>10.867158505415</v>
+        <v>15.167115775135</v>
       </c>
       <c r="S2">
-        <v>0.03652025832237093</v>
+        <v>0.04532758323745775</v>
       </c>
       <c r="T2">
-        <v>0.03652025832237093</v>
+        <v>0.04532758323745775</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.537013666666666</v>
+        <v>3.093697666666667</v>
       </c>
       <c r="H3">
-        <v>7.611040999999999</v>
+        <v>9.281093</v>
       </c>
       <c r="I3">
-        <v>0.2842954840254888</v>
+        <v>0.3054078832615814</v>
       </c>
       <c r="J3">
-        <v>0.2842954840254888</v>
+        <v>0.3054078832615814</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>7.115563</v>
       </c>
       <c r="O3">
-        <v>0.6401786816403544</v>
+        <v>0.6462308875194944</v>
       </c>
       <c r="P3">
-        <v>0.6401786816403543</v>
+        <v>0.6462308875194943</v>
       </c>
       <c r="Q3">
-        <v>6.017426859009221</v>
+        <v>7.337800216706556</v>
       </c>
       <c r="R3">
-        <v>54.15684173108299</v>
+        <v>66.04020195035901</v>
       </c>
       <c r="S3">
-        <v>0.1819999081597438</v>
+        <v>0.1973640074555819</v>
       </c>
       <c r="T3">
-        <v>0.1819999081597438</v>
+        <v>0.1973640074555818</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.537013666666666</v>
+        <v>3.093697666666667</v>
       </c>
       <c r="H4">
-        <v>7.611040999999999</v>
+        <v>9.281093</v>
       </c>
       <c r="I4">
-        <v>0.2842954840254888</v>
+        <v>0.3054078832615814</v>
       </c>
       <c r="J4">
-        <v>0.2842954840254888</v>
+        <v>0.3054078832615814</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,33 +679,33 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.8020063333333334</v>
+        <v>0.7537033333333333</v>
       </c>
       <c r="N4">
-        <v>2.406019</v>
+        <v>2.26111</v>
       </c>
       <c r="O4">
-        <v>0.2164666480251308</v>
+        <v>0.205352566210039</v>
       </c>
       <c r="P4">
-        <v>0.2164666480251308</v>
+        <v>0.205352566210039</v>
       </c>
       <c r="Q4">
-        <v>2.034701028419889</v>
+        <v>2.331730243692222</v>
       </c>
       <c r="R4">
-        <v>18.312309255779</v>
+        <v>20.98557219323</v>
       </c>
       <c r="S4">
-        <v>0.06154049047567968</v>
+        <v>0.06271629256854176</v>
       </c>
       <c r="T4">
-        <v>0.06154049047567969</v>
+        <v>0.06271629256854176</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -714,7 +714,7 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -723,46 +723,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.537013666666666</v>
+        <v>2.670935</v>
       </c>
       <c r="H5">
-        <v>7.611040999999999</v>
+        <v>8.012805</v>
       </c>
       <c r="I5">
-        <v>0.2842954840254888</v>
+        <v>0.2636730193348796</v>
       </c>
       <c r="J5">
-        <v>0.2842954840254888</v>
+        <v>0.2636730193348796</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.05518900000000001</v>
+        <v>0.5447316666666667</v>
       </c>
       <c r="N5">
-        <v>0.165567</v>
+        <v>1.634195</v>
       </c>
       <c r="O5">
-        <v>0.01489586470995318</v>
+        <v>0.1484165462704666</v>
       </c>
       <c r="P5">
-        <v>0.01489586470995318</v>
+        <v>0.1484165462704666</v>
       </c>
       <c r="Q5">
-        <v>0.1400152472496667</v>
+        <v>1.454942874108333</v>
       </c>
       <c r="R5">
-        <v>1.260137225247</v>
+        <v>13.094485866975</v>
       </c>
       <c r="S5">
-        <v>0.004234827067694336</v>
+        <v>0.03913343887438879</v>
       </c>
       <c r="T5">
-        <v>0.004234827067694336</v>
+        <v>0.03913343887438879</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,7 +776,7 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -791,40 +791,40 @@
         <v>8.012805</v>
       </c>
       <c r="I6">
-        <v>0.2993025889463553</v>
+        <v>0.2636730193348796</v>
       </c>
       <c r="J6">
-        <v>0.2993025889463553</v>
+        <v>0.2636730193348796</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.4759383333333333</v>
+        <v>2.371854333333333</v>
       </c>
       <c r="N6">
-        <v>1.427815</v>
+        <v>7.115563</v>
       </c>
       <c r="O6">
-        <v>0.1284588056245616</v>
+        <v>0.6462308875194944</v>
       </c>
       <c r="P6">
-        <v>0.1284588056245616</v>
+        <v>0.6462308875194943</v>
       </c>
       <c r="Q6">
-        <v>1.271200352341667</v>
+        <v>6.335068753801667</v>
       </c>
       <c r="R6">
-        <v>11.440803171075</v>
+        <v>57.015618784215</v>
       </c>
       <c r="S6">
-        <v>0.03844805309638793</v>
+        <v>0.170393649299724</v>
       </c>
       <c r="T6">
-        <v>0.03844805309638791</v>
+        <v>0.170393649299724</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,7 +838,7 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -853,10 +853,10 @@
         <v>8.012805</v>
       </c>
       <c r="I7">
-        <v>0.2993025889463553</v>
+        <v>0.2636730193348796</v>
       </c>
       <c r="J7">
-        <v>0.2993025889463553</v>
+        <v>0.2636730193348796</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,33 +865,33 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.371854333333333</v>
+        <v>0.7537033333333333</v>
       </c>
       <c r="N7">
-        <v>7.115563</v>
+        <v>2.26111</v>
       </c>
       <c r="O7">
-        <v>0.6401786816403544</v>
+        <v>0.205352566210039</v>
       </c>
       <c r="P7">
-        <v>0.6401786816403543</v>
+        <v>0.205352566210039</v>
       </c>
       <c r="Q7">
-        <v>6.335068753801667</v>
+        <v>2.013092612616667</v>
       </c>
       <c r="R7">
-        <v>57.015618784215</v>
+        <v>18.11783351355</v>
       </c>
       <c r="S7">
-        <v>0.1916071368032227</v>
+        <v>0.05414593116076676</v>
       </c>
       <c r="T7">
-        <v>0.1916071368032226</v>
+        <v>0.05414593116076676</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -900,7 +900,7 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -909,51 +909,51 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>2.670935</v>
+        <v>2.819128666666666</v>
       </c>
       <c r="H8">
-        <v>8.012805</v>
+        <v>8.457386</v>
       </c>
       <c r="I8">
-        <v>0.2993025889463553</v>
+        <v>0.27830260468095</v>
       </c>
       <c r="J8">
-        <v>0.2993025889463553</v>
+        <v>0.27830260468095</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>0.8020063333333334</v>
+        <v>0.5447316666666667</v>
       </c>
       <c r="N8">
-        <v>2.406019</v>
+        <v>1.634195</v>
       </c>
       <c r="O8">
-        <v>0.2164666480251308</v>
+        <v>0.1484165462704666</v>
       </c>
       <c r="P8">
-        <v>0.2164666480251308</v>
+        <v>0.1484165462704666</v>
       </c>
       <c r="Q8">
-        <v>2.142106785921667</v>
+        <v>1.535668657141111</v>
       </c>
       <c r="R8">
-        <v>19.278961073295</v>
+        <v>13.82101791427</v>
       </c>
       <c r="S8">
-        <v>0.06478902817446111</v>
+        <v>0.04130471140482159</v>
       </c>
       <c r="T8">
-        <v>0.0647890281744611</v>
+        <v>0.04130471140482159</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -962,7 +962,7 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -971,46 +971,46 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>2.670935</v>
+        <v>2.819128666666666</v>
       </c>
       <c r="H9">
-        <v>8.012805</v>
+        <v>8.457386</v>
       </c>
       <c r="I9">
-        <v>0.2993025889463553</v>
+        <v>0.27830260468095</v>
       </c>
       <c r="J9">
-        <v>0.2993025889463553</v>
+        <v>0.27830260468095</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.05518900000000001</v>
+        <v>2.371854333333333</v>
       </c>
       <c r="N9">
-        <v>0.165567</v>
+        <v>7.115563</v>
       </c>
       <c r="O9">
-        <v>0.01489586470995318</v>
+        <v>0.6462308875194944</v>
       </c>
       <c r="P9">
-        <v>0.01489586470995318</v>
+        <v>0.6462308875194943</v>
       </c>
       <c r="Q9">
-        <v>0.147406231715</v>
+        <v>6.686562544257555</v>
       </c>
       <c r="R9">
-        <v>1.326656085435</v>
+        <v>60.17906289831799</v>
       </c>
       <c r="S9">
-        <v>0.004458370872283637</v>
+        <v>0.1798477392219573</v>
       </c>
       <c r="T9">
-        <v>0.004458370872283637</v>
+        <v>0.1798477392219573</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,7 +1024,7 @@
         <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1033,51 +1033,51 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.130761666666667</v>
+        <v>2.819128666666666</v>
       </c>
       <c r="H10">
-        <v>6.392285</v>
+        <v>8.457386</v>
       </c>
       <c r="I10">
-        <v>0.2387712479940486</v>
+        <v>0.27830260468095</v>
       </c>
       <c r="J10">
-        <v>0.2387712479940486</v>
+        <v>0.27830260468095</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.4759383333333333</v>
+        <v>0.7537033333333333</v>
       </c>
       <c r="N10">
-        <v>1.427815</v>
+        <v>2.26111</v>
       </c>
       <c r="O10">
-        <v>0.1284588056245616</v>
+        <v>0.205352566210039</v>
       </c>
       <c r="P10">
-        <v>0.1284588056245616</v>
+        <v>0.205352566210039</v>
       </c>
       <c r="Q10">
-        <v>1.014111156363889</v>
+        <v>2.124786673162222</v>
       </c>
       <c r="R10">
-        <v>9.127000407274998</v>
+        <v>19.12308005846</v>
       </c>
       <c r="S10">
-        <v>0.0306722693348015</v>
+        <v>0.0571501540541711</v>
       </c>
       <c r="T10">
-        <v>0.03067226933480149</v>
+        <v>0.05715015405417111</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s">
         <v>24</v>
@@ -1086,7 +1086,7 @@
         <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1095,51 +1095,51 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>2.130761666666667</v>
+        <v>1.545963</v>
       </c>
       <c r="H11">
-        <v>6.392285</v>
+        <v>4.637888999999999</v>
       </c>
       <c r="I11">
-        <v>0.2387712479940486</v>
+        <v>0.152616492722589</v>
       </c>
       <c r="J11">
-        <v>0.2387712479940486</v>
+        <v>0.152616492722589</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>2.371854333333333</v>
+        <v>0.5447316666666667</v>
       </c>
       <c r="N11">
-        <v>7.115563</v>
+        <v>1.634195</v>
       </c>
       <c r="O11">
-        <v>0.6401786816403544</v>
+        <v>0.1484165462704666</v>
       </c>
       <c r="P11">
-        <v>0.6401786816403543</v>
+        <v>0.1484165462704666</v>
       </c>
       <c r="Q11">
-        <v>5.053856292383889</v>
+        <v>0.842135001595</v>
       </c>
       <c r="R11">
-        <v>45.484706631455</v>
+        <v>7.579215014354999</v>
       </c>
       <c r="S11">
-        <v>0.1528562627544522</v>
+        <v>0.02265081275379846</v>
       </c>
       <c r="T11">
-        <v>0.1528562627544522</v>
+        <v>0.02265081275379846</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B12" t="s">
         <v>24</v>
@@ -1148,7 +1148,7 @@
         <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2.130761666666667</v>
+        <v>1.545963</v>
       </c>
       <c r="H12">
-        <v>6.392285</v>
+        <v>4.637888999999999</v>
       </c>
       <c r="I12">
-        <v>0.2387712479940486</v>
+        <v>0.152616492722589</v>
       </c>
       <c r="J12">
-        <v>0.2387712479940486</v>
+        <v>0.152616492722589</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,33 +1175,33 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.8020063333333334</v>
+        <v>2.371854333333333</v>
       </c>
       <c r="N12">
-        <v>2.406019</v>
+        <v>7.115563</v>
       </c>
       <c r="O12">
-        <v>0.2164666480251308</v>
+        <v>0.6462308875194944</v>
       </c>
       <c r="P12">
-        <v>0.2164666480251308</v>
+        <v>0.6462308875194943</v>
       </c>
       <c r="Q12">
-        <v>1.708884351490556</v>
+        <v>3.666799040722999</v>
       </c>
       <c r="R12">
-        <v>15.379959163415</v>
+        <v>33.00119136650699</v>
       </c>
       <c r="S12">
-        <v>0.05168601169804895</v>
+        <v>0.09862549154223117</v>
       </c>
       <c r="T12">
-        <v>0.05168601169804894</v>
+        <v>0.09862549154223116</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B13" t="s">
         <v>24</v>
@@ -1210,7 +1210,7 @@
         <v>25</v>
       </c>
       <c r="D13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1219,294 +1219,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>2.130761666666667</v>
+        <v>1.545963</v>
       </c>
       <c r="H13">
-        <v>6.392285</v>
+        <v>4.637888999999999</v>
       </c>
       <c r="I13">
-        <v>0.2387712479940486</v>
+        <v>0.152616492722589</v>
       </c>
       <c r="J13">
-        <v>0.2387712479940486</v>
+        <v>0.152616492722589</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.05518900000000001</v>
+        <v>0.7537033333333333</v>
       </c>
       <c r="N13">
-        <v>0.165567</v>
+        <v>2.26111</v>
       </c>
       <c r="O13">
-        <v>0.01489586470995318</v>
+        <v>0.205352566210039</v>
       </c>
       <c r="P13">
-        <v>0.01489586470995318</v>
+        <v>0.205352566210039</v>
       </c>
       <c r="Q13">
-        <v>0.1175946056216667</v>
+        <v>1.16519746631</v>
       </c>
       <c r="R13">
-        <v>1.058351450595</v>
+        <v>10.48677719679</v>
       </c>
       <c r="S13">
-        <v>0.003556704206746028</v>
+        <v>0.0313401884265594</v>
       </c>
       <c r="T13">
-        <v>0.003556704206746028</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20">
-      <c r="A14" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14">
-        <v>3</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14">
-        <v>1.585151666666667</v>
-      </c>
-      <c r="H14">
-        <v>4.755455</v>
-      </c>
-      <c r="I14">
-        <v>0.1776306790341073</v>
-      </c>
-      <c r="J14">
-        <v>0.1776306790341073</v>
-      </c>
-      <c r="K14">
-        <v>2</v>
-      </c>
-      <c r="L14">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M14">
-        <v>0.4759383333333333</v>
-      </c>
-      <c r="N14">
-        <v>1.427815</v>
-      </c>
-      <c r="O14">
-        <v>0.1284588056245616</v>
-      </c>
-      <c r="P14">
-        <v>0.1284588056245616</v>
-      </c>
-      <c r="Q14">
-        <v>0.7544344423138888</v>
-      </c>
-      <c r="R14">
-        <v>6.789909980824999</v>
-      </c>
-      <c r="S14">
-        <v>0.02281822487100128</v>
-      </c>
-      <c r="T14">
-        <v>0.02281822487100128</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="A15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15">
-        <v>3</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15">
-        <v>1.585151666666667</v>
-      </c>
-      <c r="H15">
-        <v>4.755455</v>
-      </c>
-      <c r="I15">
-        <v>0.1776306790341073</v>
-      </c>
-      <c r="J15">
-        <v>0.1776306790341073</v>
-      </c>
-      <c r="K15">
-        <v>3</v>
-      </c>
-      <c r="L15">
-        <v>1</v>
-      </c>
-      <c r="M15">
-        <v>2.371854333333333</v>
-      </c>
-      <c r="N15">
-        <v>7.115563</v>
-      </c>
-      <c r="O15">
-        <v>0.6401786816403544</v>
-      </c>
-      <c r="P15">
-        <v>0.6401786816403543</v>
-      </c>
-      <c r="Q15">
-        <v>3.759748849573889</v>
-      </c>
-      <c r="R15">
-        <v>33.837739646165</v>
-      </c>
-      <c r="S15">
-        <v>0.1137153739229357</v>
-      </c>
-      <c r="T15">
-        <v>0.1137153739229357</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20">
-      <c r="A16" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>22</v>
-      </c>
-      <c r="E16">
-        <v>3</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>1.585151666666667</v>
-      </c>
-      <c r="H16">
-        <v>4.755455</v>
-      </c>
-      <c r="I16">
-        <v>0.1776306790341073</v>
-      </c>
-      <c r="J16">
-        <v>0.1776306790341073</v>
-      </c>
-      <c r="K16">
-        <v>3</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>0.8020063333333334</v>
-      </c>
-      <c r="N16">
-        <v>2.406019</v>
-      </c>
-      <c r="O16">
-        <v>0.2164666480251308</v>
-      </c>
-      <c r="P16">
-        <v>0.2164666480251308</v>
-      </c>
-      <c r="Q16">
-        <v>1.271301675960556</v>
-      </c>
-      <c r="R16">
-        <v>11.441715083645</v>
-      </c>
-      <c r="S16">
-        <v>0.03845111767694108</v>
-      </c>
-      <c r="T16">
-        <v>0.03845111767694108</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" t="s">
-        <v>23</v>
-      </c>
-      <c r="E17">
-        <v>3</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17">
-        <v>1.585151666666667</v>
-      </c>
-      <c r="H17">
-        <v>4.755455</v>
-      </c>
-      <c r="I17">
-        <v>0.1776306790341073</v>
-      </c>
-      <c r="J17">
-        <v>0.1776306790341073</v>
-      </c>
-      <c r="K17">
-        <v>1</v>
-      </c>
-      <c r="L17">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M17">
-        <v>0.05518900000000001</v>
-      </c>
-      <c r="N17">
-        <v>0.165567</v>
-      </c>
-      <c r="O17">
-        <v>0.01489586470995318</v>
-      </c>
-      <c r="P17">
-        <v>0.01489586470995318</v>
-      </c>
-      <c r="Q17">
-        <v>0.08748293533166668</v>
-      </c>
-      <c r="R17">
-        <v>0.787346417985</v>
-      </c>
-      <c r="S17">
-        <v>0.002645962563229179</v>
-      </c>
-      <c r="T17">
-        <v>0.002645962563229178</v>
+        <v>0.0313401884265594</v>
       </c>
     </row>
   </sheetData>
